--- a/results/mp/logistic/corona/confidence/126/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="109">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,82 +40,106 @@
     <t>name</t>
   </si>
   <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
     <t>hell</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>died</t>
+    <t>cancelled</t>
   </si>
   <si>
     <t>lowest</t>
   </si>
   <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
+    <t>recession</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>cut</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>shame</t>
   </si>
   <si>
     <t>empty</t>
@@ -124,12 +148,15 @@
     <t>stop</t>
   </si>
   <si>
-    <t>fight</t>
+    <t>isolation</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
+    <t>w</t>
+  </si>
+  <si>
     <t>demand</t>
   </si>
   <si>
@@ -151,91 +178,112 @@
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>nice</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>better</t>
+    <t>friends</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>giving</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>god</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>healthy</t>
   </si>
   <si>
     <t>share</t>
@@ -244,40 +292,52 @@
     <t>care</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>growth</t>
   </si>
   <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>easter</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
   <si>
     <t>give</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>check</t>
   </si>
   <si>
     <t>keep</t>
+  </si>
+  <si>
+    <t>stay</t>
   </si>
   <si>
     <t>shopping</t>
@@ -638,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -646,10 +706,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -707,13 +767,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8611111111111112</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C3">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -725,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -749,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -757,13 +817,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8421052631578947</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -775,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="K4">
         <v>0.9152542372881356</v>
@@ -807,13 +867,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.8</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -828,16 +888,16 @@
         <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -849,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -857,13 +917,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8082191780821918</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C6">
-        <v>236</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>236</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -875,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>0.8611111111111112</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -899,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -907,13 +967,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7631578947368421</v>
+        <v>0.7876712328767124</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -925,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K7">
-        <v>0.8571428571428571</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -949,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -957,7 +1017,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7567567567567568</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C8">
         <v>28</v>
@@ -975,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.875</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -999,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1007,13 +1067,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7391304347826086</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1025,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="K9">
-        <v>0.8433420365535248</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>323</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>323</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1049,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>60</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1057,13 +1117,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7241379310344828</v>
+        <v>0.76</v>
       </c>
       <c r="C10">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1075,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K10">
-        <v>0.8170731707317073</v>
+        <v>0.8302872062663186</v>
       </c>
       <c r="L10">
-        <v>67</v>
+        <v>318</v>
       </c>
       <c r="M10">
-        <v>67</v>
+        <v>318</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1099,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1107,13 +1167,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.72</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1125,19 +1185,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="K11">
-        <v>0.8125</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L11">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="M11">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1149,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1157,13 +1217,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1175,31 +1235,31 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>11</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12">
+        <v>0.8085106382978723</v>
+      </c>
+      <c r="L12">
+        <v>38</v>
+      </c>
+      <c r="M12">
+        <v>38</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
         <v>9</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K12">
-        <v>0.7887323943661971</v>
-      </c>
-      <c r="L12">
-        <v>112</v>
-      </c>
-      <c r="M12">
-        <v>112</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1228,16 +1288,16 @@
         <v>8</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="K13">
-        <v>0.7758620689655172</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1249,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1257,13 +1317,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6521739130434783</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1275,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="K14">
-        <v>0.7735849056603774</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L14">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="M14">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1299,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1307,13 +1367,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5882352941176471</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1325,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="K15">
-        <v>0.7659574468085106</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L15">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="M15">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1349,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1357,13 +1417,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5641025641025641</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1375,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="K16">
-        <v>0.7625</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L16">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="M16">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1399,7 +1459,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1407,13 +1467,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.559322033898305</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1425,19 +1485,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.78125</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="M17">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1449,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1457,13 +1517,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5406976744186046</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C18">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>279</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1475,19 +1535,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>237</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="K18">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M18">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1499,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1507,13 +1567,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5343915343915344</v>
+        <v>0.6</v>
       </c>
       <c r="C19">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1525,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="K19">
-        <v>0.746031746031746</v>
+        <v>0.775</v>
       </c>
       <c r="L19">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="M19">
-        <v>47</v>
+        <v>124</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1549,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1557,13 +1617,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.525</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C20">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1575,19 +1635,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="K20">
-        <v>0.7441860465116279</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1599,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1607,13 +1667,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>0.5502645502645502</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1625,19 +1685,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="K21">
-        <v>0.7407407407407407</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1649,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1657,37 +1717,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4899328859060403</v>
+        <v>0.5426356589147286</v>
       </c>
       <c r="C22">
+        <v>280</v>
+      </c>
+      <c r="D22">
+        <v>280</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>236</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D22">
-        <v>73</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>76</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="K22">
-        <v>0.696969696969697</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1707,13 +1767,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4363636363636363</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1725,19 +1785,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="K23">
-        <v>0.6875</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L23">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1749,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1757,13 +1817,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4333333333333333</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C24">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1775,19 +1835,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="K24">
-        <v>0.65</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L24">
-        <v>221</v>
+        <v>34</v>
       </c>
       <c r="M24">
-        <v>221</v>
+        <v>34</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1799,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>119</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1807,13 +1867,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4133333333333333</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C25">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1825,19 +1885,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="K25">
-        <v>0.6150627615062761</v>
+        <v>0.7</v>
       </c>
       <c r="L25">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="M25">
-        <v>147</v>
+        <v>28</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1849,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1857,13 +1917,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.375</v>
+        <v>0.4697986577181208</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="D26">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1875,19 +1935,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="K26">
-        <v>0.6101694915254238</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L26">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1899,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>115</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1907,13 +1967,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3636363636363636</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1925,19 +1985,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="K27">
-        <v>0.6071428571428571</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L27">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1949,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1957,7 +2017,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.358974358974359</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C28">
         <v>14</v>
@@ -1975,19 +2035,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="K28">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1999,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2007,13 +2067,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="C29">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D29">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2025,19 +2085,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="K29">
-        <v>0.6</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2049,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>20</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2057,13 +2117,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2936507936507937</v>
+        <v>0.4375</v>
       </c>
       <c r="C30">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="D30">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2075,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="K30">
-        <v>0.574468085106383</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L30">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2099,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2107,13 +2167,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2125</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2125,19 +2185,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="K31">
-        <v>0.5692307692307692</v>
+        <v>0.6033898305084746</v>
       </c>
       <c r="L31">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="M31">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2149,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>28</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2157,13 +2217,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1688311688311688</v>
+        <v>0.4181818181818182</v>
       </c>
       <c r="C32">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D32">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2175,13 +2235,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="K32">
-        <v>0.5571428571428572</v>
+        <v>0.6</v>
       </c>
       <c r="L32">
         <v>39</v>
@@ -2199,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2207,13 +2267,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1662198391420912</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="C33">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D33">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2225,19 +2285,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>311</v>
+        <v>23</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K33">
-        <v>0.5393258426966292</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L33">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M33">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2249,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2257,13 +2317,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.07666666666666666</v>
+        <v>0.4</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2275,19 +2335,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>277</v>
+        <v>33</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K34">
-        <v>0.4848484848484849</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L34">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="M34">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2299,7 +2359,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>17</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2307,37 +2367,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.01160915833602064</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C35">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D35">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E35">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>3065</v>
+        <v>34</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="K35">
-        <v>0.4642857142857143</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2349,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2357,37 +2417,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01122544434050514</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C36">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D36">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E36">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>2114</v>
+        <v>23</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K36">
-        <v>0.4222222222222222</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2399,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2407,13 +2467,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.01119724375538329</v>
+        <v>0.3</v>
       </c>
       <c r="C37">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D37">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2425,19 +2485,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>1148</v>
+        <v>63</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K37">
-        <v>0.4193548387096774</v>
+        <v>0.58</v>
       </c>
       <c r="L37">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2449,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2457,283 +2517,785 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004727387330601954</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="C38">
+        <v>66</v>
+      </c>
+      <c r="D38">
+        <v>66</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>186</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K38">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L38">
         <v>15</v>
       </c>
-      <c r="D38">
-        <v>43</v>
-      </c>
-      <c r="E38">
-        <v>0.65</v>
-      </c>
-      <c r="F38">
-        <v>0.35</v>
-      </c>
-      <c r="G38" t="b">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>3158</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K38">
-        <v>0.392156862745098</v>
-      </c>
-      <c r="L38">
+      <c r="M38">
+        <v>15</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.2549019607843137</v>
+      </c>
+      <c r="C39">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <v>13</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>38</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K39">
+        <v>0.5428571428571428</v>
+      </c>
+      <c r="L39">
+        <v>38</v>
+      </c>
+      <c r="M39">
+        <v>38</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.2337662337662338</v>
+      </c>
+      <c r="C40">
+        <v>18</v>
+      </c>
+      <c r="D40">
+        <v>18</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>59</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40">
+        <v>0.5393258426966292</v>
+      </c>
+      <c r="L40">
+        <v>48</v>
+      </c>
+      <c r="M40">
+        <v>48</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.2203389830508475</v>
+      </c>
+      <c r="C41">
+        <v>13</v>
+      </c>
+      <c r="D41">
+        <v>13</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>46</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K41">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="L41">
+        <v>15</v>
+      </c>
+      <c r="M41">
+        <v>15</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.1635388739946381</v>
+      </c>
+      <c r="C42">
+        <v>61</v>
+      </c>
+      <c r="D42">
+        <v>61</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>312</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K42">
+        <v>0.5357142857142857</v>
+      </c>
+      <c r="L42">
+        <v>15</v>
+      </c>
+      <c r="M42">
+        <v>15</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.07333333333333333</v>
+      </c>
+      <c r="C43">
+        <v>22</v>
+      </c>
+      <c r="D43">
+        <v>22</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>278</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K43">
+        <v>0.5</v>
+      </c>
+      <c r="L43">
+        <v>21</v>
+      </c>
+      <c r="M43">
+        <v>21</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.01482436351917499</v>
+      </c>
+      <c r="C44">
+        <v>46</v>
+      </c>
+      <c r="D44">
+        <v>50</v>
+      </c>
+      <c r="E44">
+        <v>0.08</v>
+      </c>
+      <c r="F44">
+        <v>0.92</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>3057</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K44">
+        <v>0.4705882352941176</v>
+      </c>
+      <c r="L44">
+        <v>24</v>
+      </c>
+      <c r="M44">
+        <v>24</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.01169317118802619</v>
+      </c>
+      <c r="C45">
+        <v>25</v>
+      </c>
+      <c r="D45">
+        <v>30</v>
+      </c>
+      <c r="E45">
+        <v>0.17</v>
+      </c>
+      <c r="F45">
+        <v>0.83</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>2113</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K45">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="L45">
         <v>20</v>
       </c>
-      <c r="M38">
+      <c r="M45">
         <v>20</v>
       </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K39">
-        <v>0.3461538461538461</v>
-      </c>
-      <c r="L39">
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.01120689655172414</v>
+      </c>
+      <c r="C46">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <v>14</v>
+      </c>
+      <c r="E46">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F46">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1147</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K46">
+        <v>0.4193548387096774</v>
+      </c>
+      <c r="L46">
+        <v>13</v>
+      </c>
+      <c r="M46">
+        <v>13</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.004104831070413641</v>
+      </c>
+      <c r="C47">
+        <v>13</v>
+      </c>
+      <c r="D47">
+        <v>47</v>
+      </c>
+      <c r="E47">
+        <v>0.72</v>
+      </c>
+      <c r="F47">
+        <v>0.28</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>3154</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K47">
+        <v>0.3698630136986301</v>
+      </c>
+      <c r="L47">
         <v>27</v>
       </c>
-      <c r="M39">
+      <c r="M47">
         <v>27</v>
       </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K40">
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="J48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K48">
+        <v>0.3389830508474576</v>
+      </c>
+      <c r="L48">
+        <v>20</v>
+      </c>
+      <c r="M48">
+        <v>20</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K49">
         <v>0.3333333333333333</v>
       </c>
-      <c r="L40">
+      <c r="L49">
+        <v>26</v>
+      </c>
+      <c r="M49">
+        <v>26</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K50">
+        <v>0.296875</v>
+      </c>
+      <c r="L50">
+        <v>19</v>
+      </c>
+      <c r="M50">
+        <v>19</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K51">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="L51">
+        <v>15</v>
+      </c>
+      <c r="M51">
+        <v>15</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K52">
+        <v>0.2131147540983606</v>
+      </c>
+      <c r="L52">
+        <v>13</v>
+      </c>
+      <c r="M52">
+        <v>13</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K53">
+        <v>0.1805555555555556</v>
+      </c>
+      <c r="L53">
+        <v>13</v>
+      </c>
+      <c r="M53">
+        <v>13</v>
+      </c>
+      <c r="N53">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K54">
+        <v>0.1495327102803738</v>
+      </c>
+      <c r="L54">
+        <v>16</v>
+      </c>
+      <c r="M54">
+        <v>18</v>
+      </c>
+      <c r="N54">
+        <v>0.89</v>
+      </c>
+      <c r="O54">
+        <v>0.11</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K55">
+        <v>0.1048387096774194</v>
+      </c>
+      <c r="L55">
+        <v>13</v>
+      </c>
+      <c r="M55">
+        <v>13</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K56">
+        <v>0.04220779220779221</v>
+      </c>
+      <c r="L56">
+        <v>13</v>
+      </c>
+      <c r="M56">
+        <v>13</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K57">
+        <v>0.03373493975903614</v>
+      </c>
+      <c r="L57">
         <v>14</v>
       </c>
-      <c r="M40">
-        <v>14</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K41">
-        <v>0.3150684931506849</v>
-      </c>
-      <c r="L41">
-        <v>23</v>
-      </c>
-      <c r="M41">
-        <v>23</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K42">
-        <v>0.2786885245901639</v>
-      </c>
-      <c r="L42">
-        <v>17</v>
-      </c>
-      <c r="M42">
-        <v>17</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K43">
-        <v>0.2542372881355932</v>
-      </c>
-      <c r="L43">
+      <c r="M57">
         <v>15</v>
       </c>
-      <c r="M43">
-        <v>15</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K44">
-        <v>0.203125</v>
-      </c>
-      <c r="L44">
-        <v>13</v>
-      </c>
-      <c r="M44">
-        <v>13</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q44">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K45">
-        <v>0.1209677419354839</v>
-      </c>
-      <c r="L45">
-        <v>15</v>
-      </c>
-      <c r="M45">
-        <v>15</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="J46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K46">
-        <v>0.04326923076923077</v>
-      </c>
-      <c r="L46">
-        <v>18</v>
-      </c>
-      <c r="M46">
-        <v>18</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="J47" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K47">
-        <v>0.008788449466415568</v>
-      </c>
-      <c r="L47">
-        <v>28</v>
-      </c>
-      <c r="M47">
-        <v>43</v>
-      </c>
-      <c r="N47">
-        <v>0.65</v>
-      </c>
-      <c r="O47">
-        <v>0.35</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>3158</v>
+      <c r="N57">
+        <v>0.93</v>
+      </c>
+      <c r="O57">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K58">
+        <v>0.01066499372647428</v>
+      </c>
+      <c r="L58">
+        <v>34</v>
+      </c>
+      <c r="M58">
+        <v>47</v>
+      </c>
+      <c r="N58">
+        <v>0.72</v>
+      </c>
+      <c r="O58">
+        <v>0.28</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>3154</v>
       </c>
     </row>
   </sheetData>
